--- a/src/main/resources/Excel/TestData.xlsx
+++ b/src/main/resources/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>SI NO</t>
   </si>
@@ -31,108 +31,273 @@
     <t>Home page</t>
   </si>
   <si>
-    <t>Time To interactive</t>
+    <t>Career page</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>mentorship</t>
+  </si>
+  <si>
+    <t>hackathon</t>
+  </si>
+  <si>
+    <t>imarticus-networking</t>
+  </si>
+  <si>
+    <t>alumni-network</t>
+  </si>
+  <si>
+    <t>testimonials</t>
+  </si>
+  <si>
+    <t>data-science-club</t>
+  </si>
+  <si>
+    <t>scholarship</t>
+  </si>
+  <si>
+    <t>banking-and-wealth-management-bootcamp</t>
+  </si>
+  <si>
+    <t>Professional-Certificate-Course-FinTech</t>
+  </si>
+  <si>
+    <t>financial-analysis-prodegree</t>
+  </si>
+  <si>
+    <t>credit-risk-underwriting-prodegree</t>
+  </si>
+  <si>
+    <t>post-graduate-program-in-finance-and-accounting</t>
+  </si>
+  <si>
+    <t>post-graduate-program-in-banking-and-credit-underwriting</t>
+  </si>
+  <si>
+    <t>data-science-prodegree</t>
+  </si>
+  <si>
+    <t>machine-learning-prodegree</t>
+  </si>
+  <si>
+    <t>post-graduate-program-in-data-analytics</t>
+  </si>
+  <si>
+    <t>post-graduate-program-in-analytics-and-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>post-graduate-program-for-agile-business-analyst</t>
+  </si>
+  <si>
+    <t>Post-Graduation-Program-in-Digital-Marketing-with-Digitas</t>
+  </si>
+  <si>
+    <t>certified-investment-banking-operations-program</t>
+  </si>
+  <si>
+    <t>Digital-Marketing-Prodegree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       PageSpeed Insights  (mobile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       PageSpeed Insights  (Desktop)</t>
   </si>
   <si>
     <t>https://www.imarticus.org/careers/</t>
   </si>
   <si>
-    <t>Career page</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10.7 s</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>1.3 s</t>
   </si>
   <si>
     <t>https://www.imarticus.org/placement/</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>15.6 s</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1.9 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/mentorship/</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>15.3 s</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>4.6 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/hackathon/</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>9.9 s</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1.8 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/imarticus-networking/</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>15.7 s</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1.5 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/alumni-network/</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>9.8 s</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/testimonials/</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12.5 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/data-science-club/</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>11.4 s</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1.6 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/scholarship/</t>
   </si>
   <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>mentorship</t>
-  </si>
-  <si>
-    <t>hackathon</t>
-  </si>
-  <si>
-    <t>imarticus-networking</t>
-  </si>
-  <si>
-    <t>alumni-network</t>
-  </si>
-  <si>
-    <t>testimonials</t>
-  </si>
-  <si>
-    <t>data-science-club</t>
-  </si>
-  <si>
-    <t>scholarship</t>
-  </si>
-  <si>
-    <t>15.9 s</t>
-  </si>
-  <si>
-    <t>10.9 s</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>40</t>
+    <t>42</t>
   </si>
   <si>
     <t>11.6 s</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>https://www.imarticus.org/banking-and-wealth-management-bootcamp/</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>https://www.imarticus.org/banking-and-wealth-management-bootcamp/</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/Professional-Certificate-Course-FinTech/</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>14.7 s</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/financial-analysis-prodegree/</t>
   </si>
   <si>
+    <t>16.1 s</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2.4 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/credit-risk-underwriting-prodegree/</t>
   </si>
   <si>
+    <t>2.1 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/post-graduate-program-in-finance-and-accounting/</t>
   </si>
   <si>
+    <t>18.0 s</t>
+  </si>
+  <si>
+    <t>2.3 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/post-graduate-program-in-banking-and-credit-underwriting/</t>
   </si>
   <si>
+    <t>16.6 s</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>3.2 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/data-science-prodegree/</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18.5 s</t>
+  </si>
+  <si>
+    <t>4.5 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/machine-learning-prodegree/</t>
   </si>
   <si>
@@ -142,161 +307,135 @@
     <t>https://www.imarticus.org/post-graduate-program-in-analytics-and-artificial-intelligence/</t>
   </si>
   <si>
+    <t>12.4 s</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/post-graduate-program-for-agile-business-analyst/</t>
   </si>
   <si>
+    <t>17.9 s</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2.5 s</t>
+  </si>
+  <si>
+    <t>https://www.imarticus.org/Digital-Marketing-Prodegree/</t>
+  </si>
+  <si>
+    <t>16.5 s</t>
+  </si>
+  <si>
+    <t>1.7 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/Post-Graduation-Program-in-Digital-Marketing-with-Digitas/</t>
   </si>
   <si>
+    <t>15.0 s</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2.6 s</t>
+  </si>
+  <si>
     <t>https://www.imarticus.org/certified-investment-banking-operations-program/</t>
   </si>
   <si>
-    <t>banking-and-wealth-management-bootcamp</t>
-  </si>
-  <si>
-    <t>Professional-Certificate-Course-FinTech</t>
-  </si>
-  <si>
-    <t>financial-analysis-prodegree</t>
-  </si>
-  <si>
-    <t>credit-risk-underwriting-prodegree</t>
-  </si>
-  <si>
-    <t>post-graduate-program-in-finance-and-accounting</t>
-  </si>
-  <si>
-    <t>post-graduate-program-in-banking-and-credit-underwriting</t>
-  </si>
-  <si>
-    <t>data-science-prodegree</t>
-  </si>
-  <si>
-    <t>machine-learning-prodegree</t>
-  </si>
-  <si>
-    <t>post-graduate-program-in-data-analytics</t>
-  </si>
-  <si>
-    <t>post-graduate-program-in-analytics-and-artificial-intelligence</t>
-  </si>
-  <si>
-    <t>post-graduate-program-for-agile-business-analyst</t>
-  </si>
-  <si>
-    <t>Post-Graduation-Program-in-Digital-Marketing-with-Digitas</t>
-  </si>
-  <si>
-    <t>certified-investment-banking-operations-program</t>
-  </si>
-  <si>
-    <t>https://www.imarticus.org/Digital-Marketing-Prodegree/</t>
-  </si>
-  <si>
-    <t>Digital-Marketing-Prodegree</t>
-  </si>
-  <si>
-    <t>15.6 s</t>
-  </si>
-  <si>
-    <t>10.5 s</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>10.8 s</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>12.2 s</t>
-  </si>
-  <si>
-    <t>10.1 s</t>
-  </si>
-  <si>
-    <t>18.4 s</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>17.6 s</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>18.7 s</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>20.1 s</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>14.9 s</t>
-  </si>
-  <si>
-    <t>14.7 s</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>17.4 s</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>15.0 s</t>
-  </si>
-  <si>
-    <t>15.7 s</t>
-  </si>
-  <si>
-    <t>12.1 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       PageSpeed Insights  (mobile)</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>11.1 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       PageSpeed Insights  (Desktop)</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>19.4 s</t>
+  </si>
+  <si>
+    <t>3.3 s</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>https://www.imarticus.org/</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>2.3 s</t>
+    <t>GTmetrix</t>
+  </si>
+  <si>
+    <t>Time(Sec)</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>0.9s</t>
+  </si>
+  <si>
+    <t>0.8s</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>1.0s</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>92ms</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>1.1s</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>12.7 s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,16 +443,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +463,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -382,12 +519,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,36 +550,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -733,60 +895,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="57.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="57.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="83.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" style="10" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="10" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10" t="s">
+      <c r="D1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -794,491 +968,680 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>27</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>37</v>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>35</v>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>36</v>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4">
+        <v>65</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>58</v>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>43</v>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>44</v>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="C15" r:id="rId12"/>
-    <hyperlink ref="C16" r:id="rId13"/>
-    <hyperlink ref="C17" r:id="rId14"/>
-    <hyperlink ref="C18" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C20" r:id="rId17"/>
-    <hyperlink ref="C22" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
-    <hyperlink ref="C24" r:id="rId20"/>
-    <hyperlink ref="C26" r:id="rId21"/>
-    <hyperlink ref="C25" r:id="rId22"/>
-    <hyperlink ref="C21" r:id="rId23"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/Excel/TestData.xlsx
+++ b/src/main/resources/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
   <si>
     <t>SI NO</t>
   </si>
@@ -428,6 +428,15 @@
   </si>
   <si>
     <t>12.7 s</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>11.5 s</t>
+  </si>
+  <si>
+    <t>12.6 s</t>
   </si>
 </sst>
 </file>
@@ -970,17 +979,17 @@
       <c r="C3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>102</v>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>134</v>

--- a/src/main/resources/Excel/TestData.xlsx
+++ b/src/main/resources/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
   <si>
     <t>SI NO</t>
   </si>
@@ -427,23 +427,19 @@
     <t>94%</t>
   </si>
   <si>
-    <t>12.7 s</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>11.5 s</t>
-  </si>
-  <si>
-    <t>12.6 s</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>11.8 s</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,7 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -578,7 +573,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,65 +907,65 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="57.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="83.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" style="10" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="10" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="57.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="9" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>117</v>
       </c>
     </row>
@@ -973,28 +973,28 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1034,7 +1034,7 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1063,7 +1063,7 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1092,7 +1092,7 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1121,7 +1121,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1150,7 +1150,7 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1179,7 +1179,7 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1208,7 +1208,7 @@
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1237,7 +1237,7 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1266,7 +1266,7 @@
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1276,10 +1276,10 @@
         <v>61</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>135</v>
@@ -1295,7 +1295,7 @@
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1324,7 +1324,7 @@
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1353,7 +1353,7 @@
       <c r="B16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1382,7 +1382,7 @@
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1411,7 +1411,7 @@
       <c r="B18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1440,7 +1440,7 @@
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1469,7 +1469,7 @@
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1494,7 +1494,7 @@
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1523,7 +1523,7 @@
       <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1548,7 +1548,7 @@
       <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1573,7 +1573,7 @@
       <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1598,7 +1598,7 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1623,7 +1623,7 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D26" s="4" t="s">

--- a/src/main/resources/Excel/TestData.xlsx
+++ b/src/main/resources/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>SI NO</t>
   </si>
@@ -109,15 +109,6 @@
     <t>https://www.imarticus.org/careers/</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>10.7 s</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>1.3 s</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>15.6 s</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>1.9 s</t>
   </si>
   <si>
@@ -142,24 +130,15 @@
     <t>36</t>
   </si>
   <si>
-    <t>15.3 s</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
-    <t>4.6 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/hackathon/</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>9.9 s</t>
-  </si>
-  <si>
     <t>68</t>
   </si>
   <si>
@@ -184,12 +163,6 @@
     <t>https://www.imarticus.org/alumni-network/</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>9.8 s</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -199,36 +172,15 @@
     <t>32</t>
   </si>
   <si>
-    <t>12.5 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/data-science-club/</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>11.4 s</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>1.6 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/scholarship/</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>11.6 s</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/banking-and-wealth-management-bootcamp/</t>
   </si>
   <si>
@@ -238,21 +190,9 @@
     <t>https://www.imarticus.org/Professional-Certificate-Course-FinTech/</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>14.7 s</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/financial-analysis-prodegree/</t>
   </si>
   <si>
-    <t>16.1 s</t>
-  </si>
-  <si>
     <t>64</t>
   </si>
   <si>
@@ -262,30 +202,15 @@
     <t>https://www.imarticus.org/credit-risk-underwriting-prodegree/</t>
   </si>
   <si>
-    <t>2.1 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/post-graduate-program-in-finance-and-accounting/</t>
   </si>
   <si>
-    <t>18.0 s</t>
-  </si>
-  <si>
     <t>2.3 s</t>
   </si>
   <si>
     <t>https://www.imarticus.org/post-graduate-program-in-banking-and-credit-underwriting/</t>
   </si>
   <si>
-    <t>16.6 s</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>3.2 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/data-science-prodegree/</t>
   </si>
   <si>
@@ -307,18 +232,12 @@
     <t>https://www.imarticus.org/post-graduate-program-in-analytics-and-artificial-intelligence/</t>
   </si>
   <si>
-    <t>12.4 s</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
     <t>https://www.imarticus.org/post-graduate-program-for-agile-business-analyst/</t>
   </si>
   <si>
-    <t>17.9 s</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -331,33 +250,12 @@
     <t>16.5 s</t>
   </si>
   <si>
-    <t>1.7 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/Post-Graduation-Program-in-Digital-Marketing-with-Digitas/</t>
   </si>
   <si>
-    <t>15.0 s</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2.6 s</t>
-  </si>
-  <si>
     <t>https://www.imarticus.org/certified-investment-banking-operations-program/</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>19.4 s</t>
-  </si>
-  <si>
-    <t>3.3 s</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -379,45 +277,21 @@
     <t>0.8s</t>
   </si>
   <si>
-    <t>95%</t>
-  </si>
-  <si>
     <t>91%</t>
   </si>
   <si>
     <t>1.0s</t>
   </si>
   <si>
-    <t>78%</t>
-  </si>
-  <si>
     <t>69%</t>
   </si>
   <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>92ms</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
     <t>1.1s</t>
   </si>
   <si>
     <t>96%</t>
   </si>
   <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
     <t>98%</t>
   </si>
   <si>
@@ -427,13 +301,133 @@
     <t>94%</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>11.8 s</t>
-  </si>
-  <si>
-    <t>58</t>
+    <t xml:space="preserve">Pingdom </t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2.2 s</t>
+  </si>
+  <si>
+    <t>16.9 s</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>12.8 s</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>9.7 s</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>10.9 s</t>
+  </si>
+  <si>
+    <t>2.0 s</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>13.7 s</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>15.4 s</t>
+  </si>
+  <si>
+    <t>17.2 s</t>
+  </si>
+  <si>
+    <t>4.8 s</t>
+  </si>
+  <si>
+    <t>14.2 s</t>
+  </si>
+  <si>
+    <t>12.7 s</t>
+  </si>
+  <si>
+    <t>5.1 s</t>
+  </si>
+  <si>
+    <t>11.3 s</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2.7 s</t>
+  </si>
+  <si>
+    <t>17.5 s</t>
+  </si>
+  <si>
+    <t>14.8 s</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>5.2 s</t>
+  </si>
+  <si>
+    <t>4.0 s</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>19.7 s</t>
+  </si>
+  <si>
+    <t>3.7 s</t>
+  </si>
+  <si>
+    <t>15.5 s</t>
+  </si>
+  <si>
+    <t>16.2 s</t>
+  </si>
+  <si>
+    <t>4.4 s</t>
+  </si>
+  <si>
+    <t>17.4 s</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>4.1 s</t>
+  </si>
+  <si>
+    <t>15.9 s</t>
+  </si>
+  <si>
+    <t>97ms</t>
+  </si>
+  <si>
+    <t>99%</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -493,19 +493,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -541,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,12 +545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,13 +554,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,11 +578,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,730 +900,787 @@
     <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="9" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="7" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="8" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>115</v>
+      <c r="C3" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>45</v>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>50</v>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>55</v>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>59</v>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>62</v>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>67</v>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>71</v>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>73</v>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>77</v>
+      <c r="C15" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>81</v>
+      <c r="C16" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>83</v>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>90</v>
+      <c r="C19" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="4">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>94</v>
+      <c r="C20" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>95</v>
+      <c r="C21" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>96</v>
+      <c r="C22" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>99</v>
+      <c r="C23" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>103</v>
+      <c r="C24" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>106</v>
+      <c r="C25" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>110</v>
+      <c r="C26" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
